--- a/output/compiled_companies.xlsx
+++ b/output/compiled_companies.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT88"/>
+  <dimension ref="A1:BS88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,6 @@
       <c r="BQ1" t="inlineStr"/>
       <c r="BR1" t="inlineStr"/>
       <c r="BS1" t="inlineStr"/>
-      <c r="BT1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -743,7 +742,6 @@
       <c r="BS2" t="n">
         <v>366</v>
       </c>
-      <c r="BT2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1101,7 +1099,6 @@
           <t>2028-12-31</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1319,7 +1316,6 @@
       <c r="BS4" t="n">
         <v>13264.690150788</v>
       </c>
-      <c r="BT4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1537,7 +1533,6 @@
       <c r="BS5" t="n">
         <v>11405.7204240248</v>
       </c>
-      <c r="BT5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1749,7 +1744,6 @@
       <c r="BS6" t="n">
         <v>0</v>
       </c>
-      <c r="BT6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1961,7 +1955,6 @@
       <c r="BS7" t="n">
         <v>0</v>
       </c>
-      <c r="BT7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2173,7 +2166,6 @@
       <c r="BS8" t="n">
         <v>0</v>
       </c>
-      <c r="BT8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2391,7 +2383,6 @@
       <c r="BS9" t="n">
         <v>5801.160358504176</v>
       </c>
-      <c r="BT9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2605,7 +2596,6 @@
       <c r="BS10" t="n">
         <v>0.86</v>
       </c>
-      <c r="BT10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2819,7 +2809,6 @@
       <c r="BS11" t="n">
         <v>0.87</v>
       </c>
-      <c r="BT11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3037,7 +3026,6 @@
       <c r="BS12" t="n">
         <v>9811.127393848643</v>
       </c>
-      <c r="BT12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3255,7 +3243,6 @@
       <c r="BS13" t="n">
         <v>870.8103400177735</v>
       </c>
-      <c r="BT13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3473,7 +3460,6 @@
       <c r="BS14" t="n">
         <v>140</v>
       </c>
-      <c r="BT14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3687,7 +3673,6 @@
       <c r="BS15" t="n">
         <v>1.702799956335119</v>
       </c>
-      <c r="BT15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3795,7 +3780,6 @@
       <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
-      <c r="BT16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4009,7 +3993,6 @@
       <c r="BS17" t="n">
         <v>109.376652</v>
       </c>
-      <c r="BT17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4223,7 +4206,6 @@
       <c r="BS18" t="n">
         <v>0.1925345973887836</v>
       </c>
-      <c r="BT18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4439,7 +4421,6 @@
       <c r="BS19" t="n">
         <v>0.055</v>
       </c>
-      <c r="BT19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4523,7 +4504,6 @@
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
-      <c r="BT20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4743,7 +4723,6 @@
       <c r="BS21" t="n">
         <v>366</v>
       </c>
-      <c r="BT21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5101,7 +5080,6 @@
           <t>2028-12-31</t>
         </is>
       </c>
-      <c r="BT22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5319,7 +5297,6 @@
       <c r="BS23" t="n">
         <v>53376.86796825912</v>
       </c>
-      <c r="BT23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5537,7 +5514,6 @@
       <c r="BS24" t="n">
         <v>49984.67792517476</v>
       </c>
-      <c r="BT24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5755,7 +5731,6 @@
       <c r="BS25" t="n">
         <v>691.9720306624637</v>
       </c>
-      <c r="BT25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5973,7 +5948,6 @@
       <c r="BS26" t="n">
         <v>13.62427323989023</v>
       </c>
-      <c r="BT26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6191,7 +6165,6 @@
       <c r="BS27" t="n">
         <v>1660.178820853467</v>
       </c>
-      <c r="BT27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6409,7 +6382,6 @@
       <c r="BS28" t="n">
         <v>31411.71877911025</v>
       </c>
-      <c r="BT28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6627,7 +6599,6 @@
       <c r="BS29" t="n">
         <v>0.04892069415341525</v>
       </c>
-      <c r="BT29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6845,7 +6816,6 @@
       <c r="BS30" t="n">
         <v>48359.39402938054</v>
       </c>
-      <c r="BT30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7063,7 +7033,6 @@
       <c r="BS31" t="n">
         <v>3789.05591535048</v>
       </c>
-      <c r="BT31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7281,7 +7250,6 @@
       <c r="BS32" t="n">
         <v>60</v>
       </c>
-      <c r="BT32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7499,7 +7467,6 @@
       <c r="BS33" t="n">
         <v>2.051185194680667</v>
       </c>
-      <c r="BT33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7611,7 +7578,6 @@
       <c r="BQ34" t="inlineStr"/>
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="inlineStr"/>
-      <c r="BT34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7829,7 +7795,6 @@
       <c r="BS35" t="n">
         <v>202.293746</v>
       </c>
-      <c r="BT35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8045,7 +8010,6 @@
       <c r="BS36" t="n">
         <v>0.1167805851789838</v>
       </c>
-      <c r="BT36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8261,7 +8225,6 @@
       <c r="BS37" t="n">
         <v>0.048</v>
       </c>
-      <c r="BT37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8479,7 +8442,6 @@
       <c r="BS38" t="n">
         <v>921</v>
       </c>
-      <c r="BT38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8583,7 +8545,6 @@
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="inlineStr"/>
-      <c r="BT39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8803,7 +8764,6 @@
       <c r="BS40" t="n">
         <v>366</v>
       </c>
-      <c r="BT40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9161,7 +9121,6 @@
           <t>2028-12-31</t>
         </is>
       </c>
-      <c r="BT41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9379,7 +9338,6 @@
       <c r="BS42" t="n">
         <v>5707.201103430408</v>
       </c>
-      <c r="BT42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9597,7 +9555,6 @@
       <c r="BS43" t="n">
         <v>2731.487233945249</v>
       </c>
-      <c r="BT43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9815,7 +9772,6 @@
       <c r="BS44" t="n">
         <v>185</v>
       </c>
-      <c r="BT44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10033,7 +9989,6 @@
       <c r="BS45" t="n">
         <v>1112.93493733131</v>
       </c>
-      <c r="BT45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10251,7 +10206,6 @@
       <c r="BS46" t="n">
         <v>5707.201103430408</v>
       </c>
-      <c r="BT46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10469,7 +10423,6 @@
       <c r="BS47" t="n">
         <v>2731.487233945249</v>
       </c>
-      <c r="BT47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10651,7 +10604,6 @@
       <c r="BS48" t="n">
         <v>185</v>
       </c>
-      <c r="BT48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10869,7 +10821,6 @@
       <c r="BS49" t="n">
         <v>3383.327470532423</v>
       </c>
-      <c r="BT49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11087,7 +11038,6 @@
       <c r="BS50" t="n">
         <v>80</v>
       </c>
-      <c r="BT50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11305,7 +11255,6 @@
       <c r="BS51" t="n">
         <v>65.22519800000001</v>
       </c>
-      <c r="BT51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11521,7 +11470,6 @@
       <c r="BS52" t="n">
         <v>0.0882928256364965</v>
       </c>
-      <c r="BT52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11739,7 +11687,6 @@
       <c r="BS53" t="n">
         <v>0.1801310513423527</v>
       </c>
-      <c r="BT53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11955,7 +11902,6 @@
       <c r="BS54" t="n">
         <v>0.032</v>
       </c>
-      <c r="BT54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12039,7 +11985,6 @@
       <c r="BQ55" t="inlineStr"/>
       <c r="BR55" t="inlineStr"/>
       <c r="BS55" t="inlineStr"/>
-      <c r="BT55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12259,7 +12204,6 @@
       <c r="BS56" t="n">
         <v>366</v>
       </c>
-      <c r="BT56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12617,7 +12561,6 @@
           <t>2028-12-31</t>
         </is>
       </c>
-      <c r="BT57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12835,7 +12778,6 @@
       <c r="BS58" t="n">
         <v>97981.65916085431</v>
       </c>
-      <c r="BT58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13053,7 +12995,6 @@
       <c r="BS59" t="n">
         <v>97981.65916085431</v>
       </c>
-      <c r="BT59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13271,7 +13212,6 @@
       <c r="BS60" t="n">
         <v>71360.32143276199</v>
       </c>
-      <c r="BT60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13489,7 +13429,6 @@
       <c r="BS61" t="n">
         <v>71360.32143276199</v>
       </c>
-      <c r="BT61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13707,7 +13646,6 @@
       <c r="BS62" t="n">
         <v>97981.65916085431</v>
       </c>
-      <c r="BT62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13925,7 +13863,6 @@
       <c r="BS63" t="n">
         <v>71360.32143276199</v>
       </c>
-      <c r="BT63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14133,7 +14070,6 @@
       <c r="BS64" t="n">
         <v>0.04040000000000021</v>
       </c>
-      <c r="BT64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14351,7 +14287,6 @@
       <c r="BS65" t="n">
         <v>89459.47862751958</v>
       </c>
-      <c r="BT65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14569,7 +14504,6 @@
       <c r="BS66" t="n">
         <v>0.07111642623474264</v>
       </c>
-      <c r="BT66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14787,7 +14721,6 @@
       <c r="BS67" t="n">
         <v>94975.79418551888</v>
       </c>
-      <c r="BT67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15005,7 +14938,6 @@
       <c r="BS68" t="n">
         <v>2359.857273841758</v>
       </c>
-      <c r="BT68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15223,7 +15155,6 @@
       <c r="BS69" t="n">
         <v>1720.732907466563</v>
       </c>
-      <c r="BT69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15441,7 +15372,6 @@
       <c r="BS70" t="n">
         <v>0.9397361732856492</v>
       </c>
-      <c r="BT70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15553,7 +15483,6 @@
       <c r="BQ71" t="inlineStr"/>
       <c r="BR71" t="inlineStr"/>
       <c r="BS71" t="inlineStr"/>
-      <c r="BT71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15771,7 +15700,6 @@
       <c r="BS72" t="n">
         <v>99.689688</v>
       </c>
-      <c r="BT72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15987,7 +15915,6 @@
       <c r="BS73" t="n">
         <v>0.1524847542920205</v>
       </c>
-      <c r="BT73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16203,7 +16130,6 @@
       <c r="BS74" t="n">
         <v>0.04200000000000001</v>
       </c>
-      <c r="BT74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16347,7 +16273,6 @@
       <c r="BQ75" t="inlineStr"/>
       <c r="BR75" t="inlineStr"/>
       <c r="BS75" t="inlineStr"/>
-      <c r="BT75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16567,7 +16492,6 @@
       <c r="BS76" t="n">
         <v>366</v>
       </c>
-      <c r="BT76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16925,7 +16849,6 @@
           <t>2028-12-31</t>
         </is>
       </c>
-      <c r="BT77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17115,7 +17038,6 @@
       <c r="BS78" t="n">
         <v>870.5558312831162</v>
       </c>
-      <c r="BT78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17313,7 +17235,6 @@
       <c r="BQ79" t="inlineStr"/>
       <c r="BR79" t="inlineStr"/>
       <c r="BS79" t="inlineStr"/>
-      <c r="BT79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17529,7 +17450,6 @@
       <c r="BS80" t="n">
         <v>0.95</v>
       </c>
-      <c r="BT80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17747,7 +17667,6 @@
       <c r="BS81" t="n">
         <v>68250.5909909163</v>
       </c>
-      <c r="BT81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17965,7 +17884,6 @@
       <c r="BS82" t="n">
         <v>2411.35053287365</v>
       </c>
-      <c r="BT82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18183,7 +18101,6 @@
       <c r="BS83" t="n">
         <v>228</v>
       </c>
-      <c r="BT83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18401,7 +18318,6 @@
       <c r="BS84" t="n">
         <v>1.095221</v>
       </c>
-      <c r="BT84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18513,7 +18429,6 @@
       <c r="BQ85" t="inlineStr"/>
       <c r="BR85" t="inlineStr"/>
       <c r="BS85" t="inlineStr"/>
-      <c r="BT85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18731,7 +18646,6 @@
       <c r="BS86" t="n">
         <v>143.290335</v>
       </c>
-      <c r="BT86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18947,7 +18861,6 @@
       <c r="BS87" t="n">
         <v>0.1583562186444422</v>
       </c>
-      <c r="BT87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19163,9 +19076,8 @@
       <c r="BS88" t="n">
         <v>0.044</v>
       </c>
-      <c r="BT88" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>